--- a/Resources/Data/Excel/template/SmartKG_KGDesc_Template.xlsx
+++ b/Resources/Data/Excel/template/SmartKG_KGDesc_Template.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jull\Documents\source\repos\SmartKG\Resources\Data\Excel\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84396B0-97FD-4CBC-A1E1-3D7B06F42384}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vertexes" sheetId="1" r:id="rId1"/>
     <sheet name="Edges" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>实体id</t>
   </si>
@@ -182,8 +188,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,15 +222,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -266,7 +280,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -298,9 +312,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,6 +364,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -507,203 +557,239 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>38</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>40</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>46</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>47</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>28</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>31</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>34</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>39</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>28</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>32</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>34</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>37</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>39</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -714,7 +800,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -725,7 +811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -736,7 +822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
